--- a/results/Winner_determination/dataset_06/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/Winner_determination/dataset_06/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>213.0768555064352</v>
+        <v>213.0768555064351</v>
       </c>
       <c r="H4">
         <v>39.72198594603772</v>
@@ -823,10 +823,10 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O4">
-        <v>213.0768555064352</v>
+        <v>213.0768555064351</v>
       </c>
       <c r="P4">
         <v>39.72198594603772</v>
@@ -838,10 +838,10 @@
         <v>106.6319396146482</v>
       </c>
       <c r="S4">
-        <v>5.364204493599587</v>
+        <v>5.364204493599585</v>
       </c>
       <c r="T4">
-        <v>5.364204493599587</v>
+        <v>5.364204493599585</v>
       </c>
       <c r="U4">
         <v>1.679748088033469</v>
@@ -962,13 +962,13 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>266.5274308381956</v>
+        <v>266.5274308381955</v>
       </c>
       <c r="H6">
         <v>53.73058436578081</v>
       </c>
       <c r="I6">
-        <v>212.7968464724148</v>
+        <v>212.7968464724147</v>
       </c>
       <c r="J6">
         <v>0.1</v>
@@ -983,10 +983,10 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O6">
-        <v>266.5274308381956</v>
+        <v>266.5274308381955</v>
       </c>
       <c r="P6">
         <v>53.73058436578081</v>
@@ -995,22 +995,22 @@
         <v>1.601494787633478</v>
       </c>
       <c r="R6">
-        <v>126.747595674116</v>
+        <v>126.7475956741159</v>
       </c>
       <c r="S6">
-        <v>4.960441692272714</v>
+        <v>4.960441692272713</v>
       </c>
       <c r="T6">
-        <v>4.960441692272714</v>
+        <v>4.960441692272713</v>
       </c>
       <c r="U6">
         <v>1.601494787633478</v>
       </c>
       <c r="V6">
-        <v>126.747595674116</v>
+        <v>126.7475956741159</v>
       </c>
       <c r="W6">
-        <v>347.9476961041543</v>
+        <v>347.9476961041544</v>
       </c>
       <c r="X6">
         <v>560.7445425765691</v>
@@ -1019,7 +1019,7 @@
         <v>347.9476961041543</v>
       </c>
       <c r="Z6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1048,7 +1048,7 @@
         <v>32.13297368792174</v>
       </c>
       <c r="I7">
-        <v>238.0007999402722</v>
+        <v>238.0007999402721</v>
       </c>
       <c r="J7">
         <v>0.1</v>
@@ -1063,7 +1063,7 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O7">
         <v>270.1337736281939</v>
@@ -1075,19 +1075,19 @@
         <v>2.129034573580681</v>
       </c>
       <c r="R7">
-        <v>169.5885880067285</v>
+        <v>169.5885880067284</v>
       </c>
       <c r="S7">
-        <v>8.406746796974248</v>
+        <v>8.406746796974247</v>
       </c>
       <c r="T7">
-        <v>8.406746796974248</v>
+        <v>8.406746796974247</v>
       </c>
       <c r="U7">
         <v>2.129034573580681</v>
       </c>
       <c r="V7">
-        <v>169.5885880067285</v>
+        <v>169.5885880067284</v>
       </c>
       <c r="W7">
         <v>314.13736996347</v>
@@ -1288,7 +1288,7 @@
         <v>39.82505628392656</v>
       </c>
       <c r="I10">
-        <v>206.5071356307721</v>
+        <v>206.5071356307722</v>
       </c>
       <c r="J10">
         <v>0.1</v>
@@ -1368,7 +1368,7 @@
         <v>34.91750398298787</v>
       </c>
       <c r="I11">
-        <v>215.8225323418171</v>
+        <v>215.8225323418172</v>
       </c>
       <c r="J11">
         <v>0.1</v>
@@ -1383,7 +1383,7 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>250.740036324805</v>
@@ -1395,19 +1395,19 @@
         <v>1.97142844029196</v>
       </c>
       <c r="R11">
-        <v>146.985171925747</v>
+        <v>146.9851719257471</v>
       </c>
       <c r="S11">
-        <v>7.180926690721301</v>
+        <v>7.180926690721303</v>
       </c>
       <c r="T11">
-        <v>7.180926690721301</v>
+        <v>7.180926690721303</v>
       </c>
       <c r="U11">
         <v>1.97142844029196</v>
       </c>
       <c r="V11">
-        <v>146.985171925747</v>
+        <v>146.9851719257471</v>
       </c>
       <c r="W11">
         <v>333.9036131756816</v>
@@ -1602,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>246.6460399241792</v>
+        <v>246.6460399241791</v>
       </c>
       <c r="H14">
         <v>51.02738625833838</v>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>246.6460399241792</v>
+        <v>246.6460399241791</v>
       </c>
       <c r="P14">
         <v>51.02738625833838</v>
@@ -1638,10 +1638,10 @@
         <v>115.2203224013883</v>
       </c>
       <c r="S14">
-        <v>4.833601287659032</v>
+        <v>4.833601287659031</v>
       </c>
       <c r="T14">
-        <v>4.833601287659032</v>
+        <v>4.833601287659031</v>
       </c>
       <c r="U14">
         <v>1.575591798047751</v>
@@ -1688,7 +1688,7 @@
         <v>44.22761344093895</v>
       </c>
       <c r="I15">
-        <v>226.3540891488511</v>
+        <v>226.354089148851</v>
       </c>
       <c r="J15">
         <v>0.1</v>
@@ -1703,7 +1703,7 @@
         <v>0.1</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O15">
         <v>270.58170258979</v>
@@ -1715,22 +1715,22 @@
         <v>1.811224763027995</v>
       </c>
       <c r="R15">
-        <v>146.2479404749927</v>
+        <v>146.2479404749926</v>
       </c>
       <c r="S15">
-        <v>6.117935867173158</v>
+        <v>6.117935867173157</v>
       </c>
       <c r="T15">
-        <v>6.117935867173158</v>
+        <v>6.117935867173157</v>
       </c>
       <c r="U15">
         <v>1.811224763027995</v>
       </c>
       <c r="V15">
-        <v>146.2479404749927</v>
+        <v>146.2479404749926</v>
       </c>
       <c r="W15">
-        <v>303.571193534157</v>
+        <v>303.5711935341571</v>
       </c>
       <c r="X15">
         <v>529.9252826830082</v>
@@ -1739,7 +1739,7 @@
         <v>303.5711935341571</v>
       </c>
       <c r="Z15">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -2082,13 +2082,13 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>287.0333613553369</v>
+        <v>287.033361355337</v>
       </c>
       <c r="H20">
         <v>37.24294389089678</v>
       </c>
       <c r="I20">
-        <v>249.7904174644401</v>
+        <v>249.7904174644403</v>
       </c>
       <c r="J20">
         <v>0.1</v>
@@ -2103,10 +2103,10 @@
         <v>0.1</v>
       </c>
       <c r="N20">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>287.0333613553369</v>
+        <v>287.033361355337</v>
       </c>
       <c r="P20">
         <v>37.24294389089678</v>
@@ -2115,22 +2115,22 @@
         <v>2.042135949525802</v>
       </c>
       <c r="R20">
-        <v>173.7352628786675</v>
+        <v>173.7352628786676</v>
       </c>
       <c r="S20">
-        <v>7.707053507805433</v>
+        <v>7.707053507805436</v>
       </c>
       <c r="T20">
-        <v>7.707053507805433</v>
+        <v>7.707053507805436</v>
       </c>
       <c r="U20">
         <v>2.042135949525802</v>
       </c>
       <c r="V20">
-        <v>173.7352628786675</v>
+        <v>173.7352628786676</v>
       </c>
       <c r="W20">
-        <v>279.1912510251552</v>
+        <v>279.1912510251551</v>
       </c>
       <c r="X20">
         <v>528.9816684895953</v>
@@ -2162,13 +2162,13 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>300.9254421366176</v>
+        <v>300.9254421366175</v>
       </c>
       <c r="H21">
         <v>77.66441006467498</v>
       </c>
       <c r="I21">
-        <v>223.2610320719426</v>
+        <v>223.2610320719425</v>
       </c>
       <c r="J21">
         <v>0.1</v>
@@ -2183,34 +2183,34 @@
         <v>0.1</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O21">
-        <v>300.9254421366176</v>
+        <v>300.9254421366175</v>
       </c>
       <c r="P21">
         <v>77.66441006467498</v>
       </c>
       <c r="Q21">
-        <v>1.35446542400901</v>
+        <v>1.354465424009009</v>
       </c>
       <c r="R21">
-        <v>118.067273963283</v>
+        <v>118.0672739632829</v>
       </c>
       <c r="S21">
-        <v>3.874689087138139</v>
+        <v>3.874689087138138</v>
       </c>
       <c r="T21">
-        <v>3.874689087138139</v>
+        <v>3.874689087138138</v>
       </c>
       <c r="U21">
-        <v>1.35446542400901</v>
+        <v>1.354465424009009</v>
       </c>
       <c r="V21">
-        <v>118.067273963283</v>
+        <v>118.0672739632829</v>
       </c>
       <c r="W21">
-        <v>276.9675537715307</v>
+        <v>276.9675537715308</v>
       </c>
       <c r="X21">
         <v>500.2285858434733</v>
@@ -2242,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>350.7799503801286</v>
+        <v>350.7799503801288</v>
       </c>
       <c r="H22">
         <v>11.26082310813159</v>
       </c>
       <c r="I22">
-        <v>339.519127271997</v>
+        <v>339.5191272719971</v>
       </c>
       <c r="J22">
         <v>0.1</v>
@@ -2263,34 +2263,34 @@
         <v>0.1</v>
       </c>
       <c r="N22">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>350.7799503801286</v>
+        <v>350.7799503801288</v>
       </c>
       <c r="P22">
         <v>11.26082310813159</v>
       </c>
       <c r="Q22">
-        <v>3.438829384645003</v>
+        <v>3.438829384645004</v>
       </c>
       <c r="R22">
         <v>300.7950778724647</v>
       </c>
       <c r="S22">
-        <v>31.15047159623934</v>
+        <v>31.15047159623935</v>
       </c>
       <c r="T22">
-        <v>31.15047159623934</v>
+        <v>31.15047159623935</v>
       </c>
       <c r="U22">
-        <v>3.438829384645003</v>
+        <v>3.438829384645004</v>
       </c>
       <c r="V22">
         <v>300.7950778724647</v>
       </c>
       <c r="W22">
-        <v>215.43913205682</v>
+        <v>215.4391320568199</v>
       </c>
       <c r="X22">
         <v>554.958259328817</v>
@@ -2343,7 +2343,7 @@
         <v>0.1</v>
       </c>
       <c r="N23">
-        <v>0.9676744183146008</v>
+        <v>0.967674418314601</v>
       </c>
       <c r="O23">
         <v>306.2078168977224</v>
@@ -2370,7 +2370,7 @@
         <v>199.4601116489529</v>
       </c>
       <c r="W23">
-        <v>226.1751819200345</v>
+        <v>226.1751819200344</v>
       </c>
       <c r="X23">
         <v>492.5409510824098</v>
@@ -2402,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>358.5152654778142</v>
+        <v>358.5152654778143</v>
       </c>
       <c r="H24">
         <v>17.22226740642064</v>
@@ -2423,10 +2423,10 @@
         <v>0.1</v>
       </c>
       <c r="N24">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>358.5152654778142</v>
+        <v>358.5152654778143</v>
       </c>
       <c r="P24">
         <v>17.22226740642064</v>
@@ -2450,7 +2450,7 @@
         <v>289.0101884571063</v>
       </c>
       <c r="W24">
-        <v>239.5575519312103</v>
+        <v>239.5575519312102</v>
       </c>
       <c r="X24">
         <v>580.8505500026039</v>

--- a/results/Winner_determination/dataset_06/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/Winner_determination/dataset_06/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>255.9446111077716</v>
+        <v>405.1352606187629</v>
       </c>
       <c r="H2">
-        <v>77.72241753312456</v>
+        <v>121.9918082306915</v>
       </c>
       <c r="I2">
-        <v>178.222193574647</v>
+        <v>283.1434523880714</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>178.222193574647</v>
+        <v>283.1434523880713</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>255.9446111077716</v>
+        <v>405.1352606187629</v>
       </c>
       <c r="P2">
-        <v>77.72241753312456</v>
+        <v>121.9918082306915</v>
       </c>
       <c r="Q2">
-        <v>1.191817328508189</v>
+        <v>1.200267091356324</v>
       </c>
       <c r="R2">
-        <v>85.59126954512045</v>
+        <v>136.7206995537207</v>
       </c>
       <c r="S2">
-        <v>3.293060345153191</v>
+        <v>3.321003815704047</v>
       </c>
       <c r="T2">
-        <v>3.293060345153191</v>
+        <v>3.321003815704047</v>
       </c>
       <c r="U2">
-        <v>1.191817328508189</v>
+        <v>1.200267091356324</v>
       </c>
       <c r="V2">
-        <v>85.59126954512045</v>
+        <v>136.7206995537207</v>
       </c>
       <c r="W2">
-        <v>341.7864665781935</v>
+        <v>236.8652077647692</v>
       </c>
       <c r="X2">
         <v>520.0086601528405</v>
       </c>
       <c r="Y2">
-        <v>341.7864665781935</v>
+        <v>236.8652077647693</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>283.2195834744782</v>
+        <v>465.727890160208</v>
       </c>
       <c r="H3">
-        <v>26.34796911198112</v>
+        <v>75.15212374776451</v>
       </c>
       <c r="I3">
-        <v>256.871614362497</v>
+        <v>390.5757664124435</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>256.871614362497</v>
+        <v>390.5757664124436</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O3">
-        <v>283.2195834744782</v>
+        <v>465.727890160208</v>
       </c>
       <c r="P3">
-        <v>26.34796911198112</v>
+        <v>75.15212374776451</v>
       </c>
       <c r="Q3">
-        <v>2.374831311647534</v>
+        <v>1.824087160962924</v>
       </c>
       <c r="R3">
-        <v>194.2996323170422</v>
+        <v>253.4917423650494</v>
       </c>
       <c r="S3">
-        <v>10.74919976833018</v>
+        <v>6.197135449203611</v>
       </c>
       <c r="T3">
-        <v>10.74919976833018</v>
+        <v>6.197135449203611</v>
       </c>
       <c r="U3">
-        <v>2.374831311647534</v>
+        <v>1.824087160962924</v>
       </c>
       <c r="V3">
-        <v>194.2996323170422</v>
+        <v>253.4917423650494</v>
       </c>
       <c r="W3">
-        <v>284.05864820944</v>
+        <v>150.3544961594936</v>
       </c>
       <c r="X3">
         <v>540.9302625719371</v>
       </c>
       <c r="Y3">
-        <v>284.05864820944</v>
+        <v>150.3544961594935</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,64 +799,64 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>213.0768555064351</v>
+        <v>362.0365086007785</v>
       </c>
       <c r="H4">
-        <v>39.72198594603772</v>
+        <v>83.94658687652364</v>
       </c>
       <c r="I4">
-        <v>173.3548695603974</v>
+        <v>278.0899217242549</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>173.3548695603974</v>
+        <v>278.0899217242549</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>213.0768555064351</v>
+        <v>362.0365086007783</v>
       </c>
       <c r="P4">
-        <v>39.72198594603772</v>
+        <v>83.94658687652363</v>
       </c>
       <c r="Q4">
-        <v>1.679748088033469</v>
+        <v>1.4615643331545</v>
       </c>
       <c r="R4">
-        <v>106.6319396146482</v>
+        <v>155.3965844554722</v>
       </c>
       <c r="S4">
-        <v>5.364204493599585</v>
+        <v>4.312700754984774</v>
       </c>
       <c r="T4">
-        <v>5.364204493599585</v>
+        <v>4.312700754984775</v>
       </c>
       <c r="U4">
-        <v>1.679748088033469</v>
+        <v>1.461564333154501</v>
       </c>
       <c r="V4">
-        <v>106.6319396146482</v>
+        <v>155.3965844554722</v>
       </c>
       <c r="W4">
-        <v>321.3059069600966</v>
+        <v>216.5708547962392</v>
       </c>
       <c r="X4">
         <v>494.660776520494</v>
       </c>
       <c r="Y4">
-        <v>321.3059069600966</v>
+        <v>216.5708547962392</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -879,67 +879,67 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>277.646064202827</v>
+        <v>393.6655741372268</v>
       </c>
       <c r="H5">
-        <v>61.54264731875374</v>
+        <v>95.456472715402</v>
       </c>
       <c r="I5">
-        <v>216.1034168840733</v>
+        <v>298.2091014218248</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>216.1034168840733</v>
+        <v>298.2091014218247</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5">
-        <v>277.646064202827</v>
+        <v>393.6655741372268</v>
       </c>
       <c r="P5">
-        <v>61.54264731875374</v>
+        <v>95.456472715402</v>
       </c>
       <c r="Q5">
-        <v>1.506616765373685</v>
+        <v>1.416831391758895</v>
       </c>
       <c r="R5">
-        <v>123.382232648159</v>
+        <v>162.9633743320668</v>
       </c>
       <c r="S5">
-        <v>4.511441679861252</v>
+        <v>4.124032272917921</v>
       </c>
       <c r="T5">
-        <v>4.511441679861252</v>
+        <v>4.124032272917921</v>
       </c>
       <c r="U5">
-        <v>1.506616765373685</v>
+        <v>1.416831391758895</v>
       </c>
       <c r="V5">
-        <v>123.382232648159</v>
+        <v>162.9633743320668</v>
       </c>
       <c r="W5">
-        <v>256.0350155955613</v>
+        <v>173.9293310578098</v>
       </c>
       <c r="X5">
         <v>472.1384324796346</v>
       </c>
       <c r="Y5">
-        <v>256.0350155955613</v>
+        <v>173.9293310578099</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>266.5274308381955</v>
+        <v>369.680227729779</v>
       </c>
       <c r="H6">
-        <v>53.73058436578081</v>
+        <v>105.6468390851136</v>
       </c>
       <c r="I6">
-        <v>212.7968464724147</v>
+        <v>264.0333886446654</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>212.7968464724148</v>
+        <v>339.9955786322601</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.9999999999999999</v>
+        <v>0.7765788887809167</v>
       </c>
       <c r="O6">
-        <v>266.5274308381955</v>
+        <v>453.3854491071605</v>
       </c>
       <c r="P6">
-        <v>53.73058436578081</v>
+        <v>113.3898704749003</v>
       </c>
       <c r="Q6">
-        <v>1.601494787633478</v>
+        <v>1.385910583034526</v>
       </c>
       <c r="R6">
-        <v>126.7475956741159</v>
+        <v>182.8473571321818</v>
       </c>
       <c r="S6">
-        <v>4.960441692272713</v>
+        <v>3.998465182192097</v>
       </c>
       <c r="T6">
-        <v>4.960441692272713</v>
+        <v>3.499207651938822</v>
       </c>
       <c r="U6">
-        <v>1.601494787633478</v>
+        <v>1.252536557706043</v>
       </c>
       <c r="V6">
-        <v>126.7475956741159</v>
+        <v>131.7068604844729</v>
       </c>
       <c r="W6">
-        <v>347.9476961041544</v>
+        <v>296.7111539319037</v>
       </c>
       <c r="X6">
         <v>560.7445425765691</v>
       </c>
       <c r="Y6">
-        <v>347.9476961041543</v>
+        <v>220.748963944309</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>1.344111195949978</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>270.1337736281939</v>
+        <v>364.5417468483593</v>
       </c>
       <c r="H7">
-        <v>32.13297368792174</v>
+        <v>57.74884456974887</v>
       </c>
       <c r="I7">
-        <v>238.0007999402721</v>
+        <v>306.7929022786104</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>238.0007999402722</v>
+        <v>364.5911726315516</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.9999999999999998</v>
+        <v>0.8414710100198971</v>
       </c>
       <c r="O7">
-        <v>270.1337736281939</v>
+        <v>434.9269556871402</v>
       </c>
       <c r="P7">
-        <v>32.13297368792174</v>
+        <v>70.33578305558862</v>
       </c>
       <c r="Q7">
-        <v>2.129034573580681</v>
+        <v>1.821897424652642</v>
       </c>
       <c r="R7">
-        <v>169.5885880067284</v>
+        <v>236.4465906216477</v>
       </c>
       <c r="S7">
-        <v>8.406746796974247</v>
+        <v>6.183580203314201</v>
       </c>
       <c r="T7">
-        <v>8.406746796974247</v>
+        <v>6.312537498617257</v>
       </c>
       <c r="U7">
-        <v>2.129034573580681</v>
+        <v>1.842537734958845</v>
       </c>
       <c r="V7">
-        <v>169.5885880067284</v>
+        <v>200.3884770085749</v>
       </c>
       <c r="W7">
-        <v>314.13736996347</v>
+        <v>245.3452676251317</v>
       </c>
       <c r="X7">
         <v>552.1381699037421</v>
       </c>
       <c r="Y7">
-        <v>314.13736996347</v>
+        <v>187.5469972721905</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>1.308180195863426</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>271.743047679215</v>
+        <v>440.1724488837825</v>
       </c>
       <c r="H8">
-        <v>25.9268840776354</v>
+        <v>60.66268988766716</v>
       </c>
       <c r="I8">
-        <v>245.8161636015796</v>
+        <v>379.5097589961154</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
-        <v>245.8161636015796</v>
+        <v>379.5097589961153</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>271.743047679215</v>
+        <v>440.1724488837825</v>
       </c>
       <c r="P8">
-        <v>25.9268840776354</v>
+        <v>60.66268988766716</v>
       </c>
       <c r="Q8">
-        <v>2.349576516520512</v>
+        <v>1.981837734451496</v>
       </c>
       <c r="R8">
-        <v>184.8989656262179</v>
+        <v>259.2861511034073</v>
       </c>
       <c r="S8">
-        <v>10.48113019927533</v>
+        <v>7.256065461305408</v>
       </c>
       <c r="T8">
-        <v>10.48113019927533</v>
+        <v>7.256065461305408</v>
       </c>
       <c r="U8">
-        <v>2.349576516520512</v>
+        <v>1.981837734451496</v>
       </c>
       <c r="V8">
-        <v>184.8989656262179</v>
+        <v>259.2861511034073</v>
       </c>
       <c r="W8">
-        <v>280.0937481341433</v>
+        <v>146.4001527396075</v>
       </c>
       <c r="X8">
         <v>525.9099117357229</v>
       </c>
       <c r="Y8">
-        <v>280.0937481341433</v>
+        <v>146.4001527396076</v>
       </c>
       <c r="Z8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>234.5249700383749</v>
+        <v>375.0014466508525</v>
       </c>
       <c r="H9">
-        <v>53.66188769368962</v>
+        <v>115.1340836173878</v>
       </c>
       <c r="I9">
-        <v>180.8630823446853</v>
+        <v>259.8673630334647</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
-        <v>180.8630823446853</v>
+        <v>273.1787742638789</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.9512721613665489</v>
       </c>
       <c r="O9">
-        <v>234.5249700383749</v>
+        <v>421.6452351407307</v>
       </c>
       <c r="P9">
-        <v>53.66188769368962</v>
+        <v>148.4664608768517</v>
       </c>
       <c r="Q9">
-        <v>1.474859041092171</v>
+        <v>1.043805205395567</v>
       </c>
       <c r="R9">
-        <v>101.7193621175744</v>
+        <v>118.2087095739638</v>
       </c>
       <c r="S9">
-        <v>4.370419679924042</v>
+        <v>2.840003275153654</v>
       </c>
       <c r="T9">
-        <v>4.370419679924042</v>
+        <v>3.257084564958651</v>
       </c>
       <c r="U9">
-        <v>1.474859041092171</v>
+        <v>1.180832490021712</v>
       </c>
       <c r="V9">
-        <v>101.7193621175744</v>
+        <v>123.9132963891766</v>
       </c>
       <c r="W9">
-        <v>357.6494529967466</v>
+        <v>278.6451723079672</v>
       </c>
       <c r="X9">
         <v>538.5125353414319</v>
       </c>
       <c r="Y9">
-        <v>357.6494529967466</v>
+        <v>265.3337610775529</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>1.050168554413713</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>246.3321919146987</v>
+        <v>377.1752228115829</v>
       </c>
       <c r="H10">
-        <v>39.82505628392656</v>
+        <v>69.28165551473141</v>
       </c>
       <c r="I10">
-        <v>206.5071356307722</v>
+        <v>307.8935672968515</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>206.5071356307721</v>
+        <v>307.8935672968515</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O10">
-        <v>246.3321919146987</v>
+        <v>377.1752228115829</v>
       </c>
       <c r="P10">
-        <v>39.82505628392656</v>
+        <v>69.28165551473141</v>
       </c>
       <c r="Q10">
-        <v>1.822184729558462</v>
+        <v>1.694529701497374</v>
       </c>
       <c r="R10">
-        <v>133.9385262163949</v>
+        <v>190.4937442582298</v>
       </c>
       <c r="S10">
-        <v>6.185357031475651</v>
+        <v>5.444085018023044</v>
       </c>
       <c r="T10">
-        <v>6.185357031475651</v>
+        <v>5.444085018023044</v>
       </c>
       <c r="U10">
-        <v>1.822184729558462</v>
+        <v>1.694529701497374</v>
       </c>
       <c r="V10">
-        <v>133.9385262163949</v>
+        <v>190.4937442582298</v>
       </c>
       <c r="W10">
-        <v>327.0481837470616</v>
+        <v>225.6617520809822</v>
       </c>
       <c r="X10">
         <v>533.5553193778337</v>
       </c>
       <c r="Y10">
-        <v>327.0481837470616</v>
+        <v>225.6617520809822</v>
       </c>
       <c r="Z10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,64 +1359,64 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>250.740036324805</v>
+        <v>417.8234100833093</v>
       </c>
       <c r="H11">
-        <v>34.91750398298787</v>
+        <v>82.18038649925215</v>
       </c>
       <c r="I11">
-        <v>215.8225323418172</v>
+        <v>335.6430235840572</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K11">
-        <v>215.8225323418171</v>
+        <v>335.6430235840572</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>250.740036324805</v>
+        <v>417.8234100833093</v>
       </c>
       <c r="P11">
-        <v>34.91750398298787</v>
+        <v>82.18038649925215</v>
       </c>
       <c r="Q11">
-        <v>1.97142844029196</v>
+        <v>1.626142212820327</v>
       </c>
       <c r="R11">
-        <v>146.9851719257471</v>
+        <v>202.0060280317336</v>
       </c>
       <c r="S11">
-        <v>7.180926690721303</v>
+        <v>5.084222986553021</v>
       </c>
       <c r="T11">
-        <v>7.180926690721303</v>
+        <v>5.084222986553021</v>
       </c>
       <c r="U11">
-        <v>1.97142844029196</v>
+        <v>1.626142212820327</v>
       </c>
       <c r="V11">
-        <v>146.9851719257471</v>
+        <v>202.0060280317336</v>
       </c>
       <c r="W11">
-        <v>333.9036131756816</v>
+        <v>214.0831219334415</v>
       </c>
       <c r="X11">
         <v>549.7261455174987</v>
       </c>
       <c r="Y11">
-        <v>333.9036131756816</v>
+        <v>214.0831219334415</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -1439,64 +1439,64 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>220.7449590799793</v>
+        <v>398.5136672084222</v>
       </c>
       <c r="H12">
-        <v>44.21226516059056</v>
+        <v>89.33427460965615</v>
       </c>
       <c r="I12">
-        <v>176.5326939193888</v>
+        <v>309.1793925987661</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>176.5326939193888</v>
+        <v>309.1793925987661</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>220.7449590799793</v>
+        <v>398.5136672084221</v>
       </c>
       <c r="P12">
-        <v>44.21226516059056</v>
+        <v>89.33427460965615</v>
       </c>
       <c r="Q12">
-        <v>1.608005760887722</v>
+        <v>1.495356565813092</v>
       </c>
       <c r="R12">
-        <v>105.4391168392636</v>
+        <v>175.5927985090668</v>
       </c>
       <c r="S12">
-        <v>4.99284436746626</v>
+        <v>4.460926883323534</v>
       </c>
       <c r="T12">
-        <v>4.99284436746626</v>
+        <v>4.460926883323536</v>
       </c>
       <c r="U12">
-        <v>1.608005760887722</v>
+        <v>1.495356565813093</v>
       </c>
       <c r="V12">
-        <v>105.4391168392636</v>
+        <v>175.5927985090669</v>
       </c>
       <c r="W12">
-        <v>334.4901649779654</v>
+        <v>201.8434662985881</v>
       </c>
       <c r="X12">
         <v>511.0228588973541</v>
       </c>
       <c r="Y12">
-        <v>334.4901649779654</v>
+        <v>201.8434662985881</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -1519,67 +1519,67 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>281.0444485730477</v>
+        <v>427.5498940535749</v>
       </c>
       <c r="H13">
-        <v>22.07458385618751</v>
+        <v>62.62331969115901</v>
       </c>
       <c r="I13">
-        <v>258.9698647168602</v>
+        <v>364.9265743624159</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
-        <v>262.8143150909896</v>
+        <v>394.5425338673454</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N13">
-        <v>0.9853719902099001</v>
+        <v>0.9249359524950812</v>
       </c>
       <c r="O13">
-        <v>334.6860897915695</v>
+        <v>463.7176876463348</v>
       </c>
       <c r="P13">
-        <v>71.87177470057996</v>
+        <v>69.17515377898948</v>
       </c>
       <c r="Q13">
-        <v>1.538309422745678</v>
+        <v>1.902634186546451</v>
       </c>
       <c r="R13">
-        <v>152.2532868396329</v>
+        <v>262.9275214278321</v>
       </c>
       <c r="S13">
-        <v>4.65671108283999</v>
+        <v>6.703529552357561</v>
       </c>
       <c r="T13">
-        <v>12.73158535644471</v>
+        <v>6.827327202743857</v>
       </c>
       <c r="U13">
-        <v>2.544085941849371</v>
+        <v>1.920933265036855</v>
       </c>
       <c r="V13">
-        <v>202.8102262561584</v>
+        <v>244.631356400631</v>
       </c>
       <c r="W13">
-        <v>313.8607016039303</v>
+        <v>207.9039919583745</v>
       </c>
       <c r="X13">
         <v>572.8305663207905</v>
       </c>
       <c r="Y13">
-        <v>310.0162512298009</v>
+        <v>178.2880324534451</v>
       </c>
       <c r="Z13">
-        <v>1.012400802728499</v>
+        <v>1.166112997588118</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>20</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>246.6460399241791</v>
+        <v>413.7946032633157</v>
       </c>
       <c r="H14">
-        <v>51.02738625833838</v>
+        <v>103.3313235675519</v>
       </c>
       <c r="I14">
-        <v>195.6186536658408</v>
+        <v>310.4632796957638</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
-        <v>195.6186536658408</v>
+        <v>310.4632796957637</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>246.6460399241791</v>
+        <v>413.7946032633157</v>
       </c>
       <c r="P14">
-        <v>51.02738625833838</v>
+        <v>103.3313235675519</v>
       </c>
       <c r="Q14">
-        <v>1.575591798047751</v>
+        <v>1.387429164054438</v>
       </c>
       <c r="R14">
-        <v>115.2203224013883</v>
+        <v>167.0983878177966</v>
       </c>
       <c r="S14">
-        <v>4.833601287659031</v>
+        <v>4.004541788268117</v>
       </c>
       <c r="T14">
-        <v>4.833601287659031</v>
+        <v>4.004541788268117</v>
       </c>
       <c r="U14">
-        <v>1.575591798047751</v>
+        <v>1.387429164054438</v>
       </c>
       <c r="V14">
-        <v>115.2203224013883</v>
+        <v>167.0983878177966</v>
       </c>
       <c r="W14">
-        <v>308.7552990895852</v>
+        <v>193.9106730596622</v>
       </c>
       <c r="X14">
         <v>504.373952755426</v>
       </c>
       <c r="Y14">
-        <v>308.7552990895852</v>
+        <v>193.9106730596623</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>270.58170258979</v>
+        <v>394.9205991981513</v>
       </c>
       <c r="H15">
-        <v>44.22761344093895</v>
+        <v>95.4829490773304</v>
       </c>
       <c r="I15">
-        <v>226.354089148851</v>
+        <v>299.4376501208209</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K15">
-        <v>226.3540891488511</v>
+        <v>322.0703082085795</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N15">
-        <v>0.9999999999999999</v>
+        <v>0.9297275858378686</v>
       </c>
       <c r="O15">
-        <v>270.58170258979</v>
+        <v>430.7036338611785</v>
       </c>
       <c r="P15">
-        <v>44.22761344093895</v>
+        <v>108.633325652599</v>
       </c>
       <c r="Q15">
-        <v>1.811224763027995</v>
+        <v>1.377442002657489</v>
       </c>
       <c r="R15">
-        <v>146.2479404749926</v>
+        <v>172.4342025663203</v>
       </c>
       <c r="S15">
-        <v>6.117935867173157</v>
+        <v>3.964746833200481</v>
       </c>
       <c r="T15">
-        <v>6.117935867173157</v>
+        <v>4.136032694992592</v>
       </c>
       <c r="U15">
-        <v>1.811224763027995</v>
+        <v>1.41973704215375</v>
       </c>
       <c r="V15">
-        <v>146.2479404749926</v>
+        <v>163.8769704216546</v>
       </c>
       <c r="W15">
-        <v>303.5711935341571</v>
+        <v>230.4876325621873</v>
       </c>
       <c r="X15">
         <v>529.9252826830082</v>
       </c>
       <c r="Y15">
-        <v>303.5711935341571</v>
+        <v>207.8549744744287</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>1.108886776200504</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>258.0476107321789</v>
+        <v>432.0298902355943</v>
       </c>
       <c r="H16">
-        <v>30.12617029505304</v>
+        <v>106.1852751990588</v>
       </c>
       <c r="I16">
-        <v>227.9214404371259</v>
+        <v>325.8446150365355</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K16">
-        <v>227.9214404371258</v>
+        <v>325.8446150365355</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16">
-        <v>258.0476107321789</v>
+        <v>432.0298902355943</v>
       </c>
       <c r="P16">
-        <v>30.12617029505304</v>
+        <v>106.1852751990588</v>
       </c>
       <c r="Q16">
-        <v>2.147749866593428</v>
+        <v>1.40330932862554</v>
       </c>
       <c r="R16">
-        <v>163.2179622049548</v>
+        <v>176.8338277870261</v>
       </c>
       <c r="S16">
-        <v>8.565563037215931</v>
+        <v>4.068642186270131</v>
       </c>
       <c r="T16">
-        <v>8.565563037215931</v>
+        <v>4.068642186270131</v>
       </c>
       <c r="U16">
-        <v>2.147749866593428</v>
+        <v>1.40330932862554</v>
       </c>
       <c r="V16">
-        <v>163.2179622049548</v>
+        <v>176.8338277870261</v>
       </c>
       <c r="W16">
-        <v>282.7258442110621</v>
+        <v>184.8026696116524</v>
       </c>
       <c r="X16">
         <v>510.6472846481879</v>
       </c>
       <c r="Y16">
-        <v>282.7258442110621</v>
+        <v>184.8026696116524</v>
       </c>
       <c r="Z16">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>20</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>279.6506718572644</v>
+        <v>452.8409278940583</v>
       </c>
       <c r="H17">
-        <v>27.68214101021263</v>
+        <v>66.50713774750568</v>
       </c>
       <c r="I17">
-        <v>251.9685308470518</v>
+        <v>386.3337901465526</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K17">
-        <v>251.9685308470517</v>
+        <v>386.3337901465525</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
       <c r="O17">
-        <v>279.6506718572644</v>
+        <v>452.8409278940583</v>
       </c>
       <c r="P17">
-        <v>27.68214101021263</v>
+        <v>66.50713774750568</v>
       </c>
       <c r="Q17">
-        <v>2.312753747364991</v>
+        <v>1.918231634811966</v>
       </c>
       <c r="R17">
-        <v>187.9465554905964</v>
+        <v>258.7576945784901</v>
       </c>
       <c r="S17">
-        <v>10.10220530825612</v>
+        <v>6.808907182463162</v>
       </c>
       <c r="T17">
-        <v>10.10220530825612</v>
+        <v>6.808907182463162</v>
       </c>
       <c r="U17">
-        <v>2.312753747364991</v>
+        <v>1.918231634811966</v>
       </c>
       <c r="V17">
-        <v>187.9465554905964</v>
+        <v>258.7576945784901</v>
       </c>
       <c r="W17">
-        <v>256.6507148634336</v>
+        <v>122.2854555639327</v>
       </c>
       <c r="X17">
         <v>508.6192457104853</v>
       </c>
       <c r="Y17">
-        <v>256.6507148634336</v>
+        <v>122.2854555639328</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>20</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>256.5739943439725</v>
+        <v>385.3354802488931</v>
       </c>
       <c r="H18">
-        <v>54.20044368402914</v>
+        <v>79.04613646824669</v>
       </c>
       <c r="I18">
-        <v>202.3735506599434</v>
+        <v>306.2893437806464</v>
       </c>
       <c r="J18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K18">
-        <v>202.3735506599434</v>
+        <v>318.1888055733976</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N18">
-        <v>0.9999999999999999</v>
+        <v>0.9626025127712848</v>
       </c>
       <c r="O18">
-        <v>256.5739943439725</v>
+        <v>401.7842776144531</v>
       </c>
       <c r="P18">
-        <v>54.20044368402914</v>
+        <v>83.59547204105544</v>
       </c>
       <c r="Q18">
-        <v>1.554728005519601</v>
+        <v>1.569925965300331</v>
       </c>
       <c r="R18">
-        <v>118.1066029527953</v>
+        <v>186.9501034346069</v>
       </c>
       <c r="S18">
-        <v>4.733798782897701</v>
+        <v>4.806292348192359</v>
       </c>
       <c r="T18">
-        <v>4.733798782897701</v>
+        <v>4.874817384701461</v>
       </c>
       <c r="U18">
-        <v>1.554728005519601</v>
+        <v>1.584082644199766</v>
       </c>
       <c r="V18">
-        <v>118.1066029527953</v>
+        <v>181.0737309102506</v>
       </c>
       <c r="W18">
-        <v>310.3378346296353</v>
+        <v>206.4220415089322</v>
       </c>
       <c r="X18">
         <v>512.7113852895786</v>
       </c>
       <c r="Y18">
-        <v>310.3378346296353</v>
+        <v>194.522579716181</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>1.0611726505484</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>20</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>311.6478797008155</v>
+        <v>460.8545291820707</v>
       </c>
       <c r="H19">
-        <v>71.02999171935932</v>
+        <v>89.19717545250171</v>
       </c>
       <c r="I19">
-        <v>240.6178879814561</v>
+        <v>371.657353729569</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K19">
-        <v>240.6178879814562</v>
+        <v>371.6573537295689</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N19">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>311.6478797008155</v>
+        <v>460.8545291820707</v>
       </c>
       <c r="P19">
-        <v>71.02999171935932</v>
+        <v>89.19717545250171</v>
       </c>
       <c r="Q19">
-        <v>1.478771753338678</v>
+        <v>1.642233064525224</v>
       </c>
       <c r="R19">
-        <v>135.5807425869874</v>
+        <v>225.174802939213</v>
       </c>
       <c r="S19">
-        <v>4.387553372273242</v>
+        <v>5.166694201292056</v>
       </c>
       <c r="T19">
-        <v>4.387553372273242</v>
+        <v>5.166694201292056</v>
       </c>
       <c r="U19">
-        <v>1.478771753338678</v>
+        <v>1.642233064525224</v>
       </c>
       <c r="V19">
-        <v>135.5807425869874</v>
+        <v>225.174802939213</v>
       </c>
       <c r="W19">
-        <v>318.9024475255163</v>
+        <v>187.8629817774034</v>
       </c>
       <c r="X19">
         <v>559.5203355069724</v>
       </c>
       <c r="Y19">
-        <v>318.9024475255162</v>
+        <v>187.8629817774035</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,64 +2079,64 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>287.033361355337</v>
+        <v>436.7025885585026</v>
       </c>
       <c r="H20">
-        <v>37.24294389089678</v>
+        <v>69.82322526862917</v>
       </c>
       <c r="I20">
-        <v>249.7904174644403</v>
+        <v>366.8793632898734</v>
       </c>
       <c r="J20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K20">
-        <v>249.7904174644402</v>
+        <v>366.8793632898735</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O20">
-        <v>287.033361355337</v>
+        <v>436.7025885585026</v>
       </c>
       <c r="P20">
-        <v>37.24294389089678</v>
+        <v>69.82322526862917</v>
       </c>
       <c r="Q20">
-        <v>2.042135949525802</v>
+        <v>1.833285693357223</v>
       </c>
       <c r="R20">
-        <v>173.7352628786676</v>
+        <v>238.873443340837</v>
       </c>
       <c r="S20">
-        <v>7.707053507805436</v>
+        <v>6.254402985230022</v>
       </c>
       <c r="T20">
-        <v>7.707053507805436</v>
+        <v>6.254402985230022</v>
       </c>
       <c r="U20">
-        <v>2.042135949525802</v>
+        <v>1.833285693357223</v>
       </c>
       <c r="V20">
-        <v>173.7352628786676</v>
+        <v>238.873443340837</v>
       </c>
       <c r="W20">
-        <v>279.1912510251551</v>
+        <v>162.1023051997219</v>
       </c>
       <c r="X20">
         <v>528.9816684895953</v>
       </c>
       <c r="Y20">
-        <v>279.1912510251551</v>
+        <v>162.1023051997219</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -2159,64 +2159,64 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>300.9254421366175</v>
+        <v>414.2937047915111</v>
       </c>
       <c r="H21">
-        <v>77.66441006467498</v>
+        <v>103.2295888245924</v>
       </c>
       <c r="I21">
-        <v>223.2610320719425</v>
+        <v>311.0641159669187</v>
       </c>
       <c r="J21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K21">
-        <v>223.2610320719426</v>
+        <v>311.0641159669187</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N21">
         <v>0.9999999999999998</v>
       </c>
       <c r="O21">
-        <v>300.9254421366175</v>
+        <v>414.2937047915112</v>
       </c>
       <c r="P21">
-        <v>77.66441006467498</v>
+        <v>103.2295888245924</v>
       </c>
       <c r="Q21">
-        <v>1.354465424009009</v>
+        <v>1.389619628791419</v>
       </c>
       <c r="R21">
-        <v>118.0672739632829</v>
+        <v>167.6142530641979</v>
       </c>
       <c r="S21">
-        <v>3.874689087138138</v>
+        <v>4.013323210029236</v>
       </c>
       <c r="T21">
-        <v>3.874689087138138</v>
+        <v>4.013323210029234</v>
       </c>
       <c r="U21">
-        <v>1.354465424009009</v>
+        <v>1.389619628791419</v>
       </c>
       <c r="V21">
-        <v>118.0672739632829</v>
+        <v>167.6142530641978</v>
       </c>
       <c r="W21">
-        <v>276.9675537715308</v>
+        <v>189.1644698765546</v>
       </c>
       <c r="X21">
         <v>500.2285858434733</v>
       </c>
       <c r="Y21">
-        <v>276.9675537715307</v>
+        <v>189.1644698765546</v>
       </c>
       <c r="Z21">
         <v>1</v>
@@ -2239,67 +2239,67 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>350.7799503801288</v>
+        <v>554.9582593288168</v>
       </c>
       <c r="H22">
-        <v>11.26082310813159</v>
+        <v>51.56840705004143</v>
       </c>
       <c r="I22">
-        <v>339.5191272719971</v>
+        <v>503.3898522787754</v>
       </c>
       <c r="J22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K22">
-        <v>339.5191272719971</v>
+        <v>503.3898522787755</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O22">
-        <v>350.7799503801288</v>
+        <v>554.9582593288168</v>
       </c>
       <c r="P22">
-        <v>11.26082310813159</v>
+        <v>51.56840705004143</v>
       </c>
       <c r="Q22">
-        <v>3.438829384645004</v>
+        <v>2.3759836839978</v>
       </c>
       <c r="R22">
-        <v>300.7950778724647</v>
+        <v>380.8641585181198</v>
       </c>
       <c r="S22">
-        <v>31.15047159623935</v>
+        <v>10.76159398893767</v>
       </c>
       <c r="T22">
-        <v>31.15047159623935</v>
+        <v>10.76159398893767</v>
       </c>
       <c r="U22">
-        <v>3.438829384645004</v>
+        <v>2.3759836839978</v>
       </c>
       <c r="V22">
-        <v>300.7950778724647</v>
+        <v>380.8641585181198</v>
       </c>
       <c r="W22">
-        <v>215.4391320568199</v>
+        <v>51.56840705004163</v>
       </c>
       <c r="X22">
         <v>554.958259328817</v>
       </c>
       <c r="Y22">
-        <v>215.4391320568199</v>
+        <v>51.56840705004151</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>20</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>295.0839953246845</v>
+        <v>446.9723363713912</v>
       </c>
       <c r="H23">
-        <v>28.71822616230916</v>
+        <v>29.2815052940683</v>
       </c>
       <c r="I23">
-        <v>266.3657691623753</v>
+        <v>417.6908310773229</v>
       </c>
       <c r="J23">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K23">
-        <v>275.2638326703983</v>
+        <v>417.690831077323</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N23">
-        <v>0.967674418314601</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O23">
-        <v>306.2078168977224</v>
+        <v>446.9723363713912</v>
       </c>
       <c r="P23">
-        <v>30.94398422732404</v>
+        <v>29.2815052940683</v>
       </c>
       <c r="Q23">
-        <v>2.292085402075702</v>
+        <v>2.72554060729796</v>
       </c>
       <c r="R23">
-        <v>204.3375781408882</v>
+        <v>337.8828993555295</v>
       </c>
       <c r="S23">
-        <v>9.895552384212243</v>
+        <v>15.26466388536168</v>
       </c>
       <c r="T23">
-        <v>10.27514699748285</v>
+        <v>15.26466388536168</v>
       </c>
       <c r="U23">
-        <v>2.329728066604329</v>
+        <v>2.72554060729796</v>
       </c>
       <c r="V23">
-        <v>199.4601116489529</v>
+        <v>337.8828993555295</v>
       </c>
       <c r="W23">
-        <v>226.1751819200344</v>
+        <v>74.85012000508692</v>
       </c>
       <c r="X23">
         <v>492.5409510824098</v>
       </c>
       <c r="Y23">
-        <v>217.2771184120115</v>
+        <v>74.85012000508681</v>
       </c>
       <c r="Z23">
-        <v>1.040952602708722</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>20</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>358.5152654778143</v>
+        <v>472.3725331754137</v>
       </c>
       <c r="H24">
-        <v>17.22226740642064</v>
+        <v>21.08685196870858</v>
       </c>
       <c r="I24">
-        <v>341.2929980713936</v>
+        <v>451.2856812067051</v>
       </c>
       <c r="J24">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K24">
-        <v>341.2929980713936</v>
+        <v>502.4029904945357</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.8982543689926811</v>
       </c>
       <c r="O24">
-        <v>358.5152654778143</v>
+        <v>525.1613568098834</v>
       </c>
       <c r="P24">
-        <v>17.22226740642064</v>
+        <v>22.75836631534771</v>
       </c>
       <c r="Q24">
-        <v>3.035768077482977</v>
+        <v>3.138772733756333</v>
       </c>
       <c r="R24">
-        <v>289.0101884571063</v>
+        <v>430.9696508390837</v>
       </c>
       <c r="S24">
-        <v>20.81696079949125</v>
+        <v>23.07552965503182</v>
       </c>
       <c r="T24">
-        <v>20.81696079949125</v>
+        <v>22.40128274606288</v>
       </c>
       <c r="U24">
-        <v>3.035768077482977</v>
+        <v>3.109118222670627</v>
       </c>
       <c r="V24">
-        <v>289.0101884571063</v>
+        <v>385.7241654920353</v>
       </c>
       <c r="W24">
-        <v>239.5575519312102</v>
+        <v>129.5648687958987</v>
       </c>
       <c r="X24">
         <v>580.8505500026039</v>
       </c>
       <c r="Y24">
-        <v>239.5575519312102</v>
+        <v>78.44755950806814</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>1.651611211468896</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>316.0010099754927</v>
+        <v>515.6290773151302</v>
       </c>
       <c r="H25">
-        <v>36.37564810305933</v>
+        <v>73.75644612321969</v>
       </c>
       <c r="I25">
-        <v>279.6253618724334</v>
+        <v>441.8726311919105</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K25">
-        <v>279.6253618724332</v>
+        <v>441.8726311919104</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25">
-        <v>316.0010099754927</v>
+        <v>515.6290773151302</v>
       </c>
       <c r="P25">
-        <v>36.37564810305933</v>
+        <v>73.75644612321969</v>
       </c>
       <c r="Q25">
-        <v>2.161845867107615</v>
+        <v>1.944619268116998</v>
       </c>
       <c r="R25">
-        <v>200.9868173574736</v>
+        <v>298.4444249128642</v>
       </c>
       <c r="S25">
-        <v>8.687158207606362</v>
+        <v>6.990969663230588</v>
       </c>
       <c r="T25">
-        <v>8.687158207606362</v>
+        <v>6.990969663230588</v>
       </c>
       <c r="U25">
-        <v>2.161845867107615</v>
+        <v>1.944619268116998</v>
       </c>
       <c r="V25">
-        <v>200.9868173574736</v>
+        <v>298.4444249128642</v>
       </c>
       <c r="W25">
-        <v>262.9156340961985</v>
+        <v>100.6683647767213</v>
       </c>
       <c r="X25">
         <v>542.5409959686318</v>
       </c>
       <c r="Y25">
-        <v>262.9156340961986</v>
+        <v>100.6683647767214</v>
       </c>
       <c r="Z25">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999989</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>316.5322822612443</v>
+        <v>523.2518201733564</v>
       </c>
       <c r="H26">
-        <v>39.33383683334024</v>
+        <v>59.30114089736703</v>
       </c>
       <c r="I26">
-        <v>277.1984454279041</v>
+        <v>463.9506792759893</v>
       </c>
       <c r="J26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K26">
-        <v>292.8622521863727</v>
+        <v>463.9506792759894</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N26">
-        <v>0.9465147637104819</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O26">
-        <v>323.8552710849078</v>
+        <v>523.2518201733564</v>
       </c>
       <c r="P26">
-        <v>30.99301889853508</v>
+        <v>59.30114089736703</v>
       </c>
       <c r="Q26">
-        <v>2.346534739509293</v>
+        <v>2.17743429467766</v>
       </c>
       <c r="R26">
-        <v>220.1360566586921</v>
+        <v>334.8263413725504</v>
       </c>
       <c r="S26">
-        <v>10.44929737710111</v>
+        <v>8.823638335710143</v>
       </c>
       <c r="T26">
-        <v>8.047327892328685</v>
+        <v>8.823638335710143</v>
       </c>
       <c r="U26">
-        <v>2.085340097485423</v>
+        <v>2.17743429467766</v>
       </c>
       <c r="V26">
-        <v>195.1740182913906</v>
+        <v>334.8263413725504</v>
       </c>
       <c r="W26">
-        <v>278.906770562094</v>
+        <v>92.15453671400877</v>
       </c>
       <c r="X26">
         <v>556.1052159899981</v>
       </c>
       <c r="Y26">
-        <v>263.2429638036254</v>
+        <v>92.15453671400871</v>
       </c>
       <c r="Z26">
-        <v>1.059503230521875</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>327.7493575140708</v>
+        <v>457.5724425271204</v>
       </c>
       <c r="H27">
-        <v>7.439591744972518</v>
+        <v>38.83186708884663</v>
       </c>
       <c r="I27">
-        <v>320.3097657690983</v>
+        <v>418.7405754382738</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K27">
-        <v>320.3097657690982</v>
+        <v>418.7405754382737</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>327.7493575140708</v>
+        <v>457.5724425271203</v>
       </c>
       <c r="P27">
-        <v>7.439591744972518</v>
+        <v>38.83186708884663</v>
       </c>
       <c r="Q27">
-        <v>3.78543318799734</v>
+        <v>2.46669399024595</v>
       </c>
       <c r="R27">
-        <v>292.1476882725283</v>
+        <v>322.9542422601862</v>
       </c>
       <c r="S27">
-        <v>44.05475041497476</v>
+        <v>11.78342626380036</v>
       </c>
       <c r="T27">
-        <v>44.05475041497476</v>
+        <v>11.78342626380037</v>
       </c>
       <c r="U27">
-        <v>3.78543318799734</v>
+        <v>2.46669399024595</v>
       </c>
       <c r="V27">
-        <v>292.1476882725283</v>
+        <v>322.9542422601863</v>
       </c>
       <c r="W27">
-        <v>213.3215577533761</v>
+        <v>114.8907480842007</v>
       </c>
       <c r="X27">
         <v>533.6313235224744</v>
       </c>
       <c r="Y27">
-        <v>213.3215577533762</v>
+        <v>114.8907480842008</v>
       </c>
       <c r="Z27">
-        <v>0.9999999999999998</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>20</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>386.3423182221715</v>
+        <v>585.4945273395233</v>
       </c>
       <c r="H28">
-        <v>28.75554845520194</v>
+        <v>55.52620474855845</v>
       </c>
       <c r="I28">
-        <v>357.5867697669695</v>
+        <v>529.9683225909648</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K28">
-        <v>357.5867697669695</v>
+        <v>560.148534548794</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.9461210552266468</v>
       </c>
       <c r="O28">
-        <v>386.3423182221715</v>
+        <v>609.3857924449944</v>
       </c>
       <c r="P28">
-        <v>28.75554845520194</v>
+        <v>49.2372578962004</v>
       </c>
       <c r="Q28">
-        <v>2.597893072862287</v>
+        <v>2.515800941050484</v>
       </c>
       <c r="R28">
-        <v>282.8829296288445</v>
+        <v>436.2773947987877</v>
       </c>
       <c r="S28">
-        <v>13.43540078270638</v>
+        <v>12.37651767142825</v>
       </c>
       <c r="T28">
-        <v>13.43540078270638</v>
+        <v>10.54447228999068</v>
       </c>
       <c r="U28">
-        <v>2.597893072862287</v>
+        <v>2.35560176905506</v>
       </c>
       <c r="V28">
-        <v>282.8829296288445</v>
+        <v>399.1706964563471</v>
       </c>
       <c r="W28">
-        <v>299.6920799436747</v>
+        <v>127.3105271196794</v>
       </c>
       <c r="X28">
         <v>657.2788497106442</v>
       </c>
       <c r="Y28">
-        <v>299.6920799436747</v>
+        <v>97.13031516185015</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>1.310718768981026</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>20</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>244.9324652056029</v>
+        <v>381.9921278821134</v>
       </c>
       <c r="H29">
-        <v>8.741336197315889</v>
+        <v>26.48982378530496</v>
       </c>
       <c r="I29">
-        <v>236.191129008287</v>
+        <v>355.5023040968085</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K29">
-        <v>236.191129008287</v>
+        <v>355.5023040968084</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29">
-        <v>244.9324652056029</v>
+        <v>381.9921278821134</v>
       </c>
       <c r="P29">
-        <v>8.741336197315889</v>
+        <v>26.48982378530496</v>
       </c>
       <c r="Q29">
-        <v>3.332919459353522</v>
+        <v>2.668639349615304</v>
       </c>
       <c r="R29">
-        <v>207.0569594955016</v>
+        <v>284.8105179789682</v>
       </c>
       <c r="S29">
-        <v>28.02002573483123</v>
+        <v>14.42033480396426</v>
       </c>
       <c r="T29">
-        <v>28.02002573483123</v>
+        <v>14.42033480396426</v>
       </c>
       <c r="U29">
-        <v>3.332919459353522</v>
+        <v>2.668639349615304</v>
       </c>
       <c r="V29">
-        <v>207.0569594955016</v>
+        <v>284.8105179789682</v>
       </c>
       <c r="W29">
-        <v>225.7461782170983</v>
+        <v>106.4350031285769</v>
       </c>
       <c r="X29">
         <v>461.9373072253853</v>
       </c>
       <c r="Y29">
-        <v>225.7461782170983</v>
+        <v>106.4350031285769</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,64 +2879,64 @@
         <v>20</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>336.2713272834573</v>
+        <v>473.2436910447579</v>
       </c>
       <c r="H30">
-        <v>48.50515023868789</v>
+        <v>75.77036669250572</v>
       </c>
       <c r="I30">
-        <v>287.7661770447694</v>
+        <v>397.4733243522522</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K30">
-        <v>287.7661770447694</v>
+        <v>397.4733243522522</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30">
-        <v>336.2713272834573</v>
+        <v>473.243691044758</v>
       </c>
       <c r="P30">
-        <v>48.50515023868789</v>
+        <v>75.77036669250572</v>
       </c>
       <c r="Q30">
-        <v>1.936248372975914</v>
+        <v>1.831903183395901</v>
       </c>
       <c r="R30">
-        <v>193.8481588141577</v>
+        <v>258.6693484011762</v>
       </c>
       <c r="S30">
-        <v>6.932693242443481</v>
+        <v>6.245762185173184</v>
       </c>
       <c r="T30">
-        <v>6.932693242443481</v>
+        <v>6.245762185173183</v>
       </c>
       <c r="U30">
-        <v>1.936248372975914</v>
+        <v>1.831903183395901</v>
       </c>
       <c r="V30">
-        <v>193.8481588141577</v>
+        <v>258.6693484011762</v>
       </c>
       <c r="W30">
-        <v>256.8358273231722</v>
+        <v>147.1286800156894</v>
       </c>
       <c r="X30">
         <v>544.6020043679416</v>
       </c>
       <c r="Y30">
-        <v>256.8358273231722</v>
+        <v>147.1286800156894</v>
       </c>
       <c r="Z30">
         <v>1</v>
@@ -2959,67 +2959,67 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>361.2764375039665</v>
+        <v>478.3173340777398</v>
       </c>
       <c r="H31">
-        <v>25.14353907074164</v>
+        <v>36.36664704548516</v>
       </c>
       <c r="I31">
-        <v>336.1328984332248</v>
+        <v>441.9506870322546</v>
       </c>
       <c r="J31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K31">
-        <v>336.1328984332248</v>
+        <v>441.9506870322547</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O31">
-        <v>361.2764375039665</v>
+        <v>478.3173340777398</v>
       </c>
       <c r="P31">
-        <v>25.14353907074164</v>
+        <v>36.36664704548516</v>
       </c>
       <c r="Q31">
-        <v>2.665042452404041</v>
+        <v>2.576622326411876</v>
       </c>
       <c r="R31">
-        <v>269.1242994060187</v>
+        <v>348.2475723181171</v>
       </c>
       <c r="S31">
-        <v>14.3685595129433</v>
+        <v>13.15263773092664</v>
       </c>
       <c r="T31">
-        <v>14.3685595129433</v>
+        <v>13.15263773092664</v>
       </c>
       <c r="U31">
-        <v>2.665042452404041</v>
+        <v>2.576622326411876</v>
       </c>
       <c r="V31">
-        <v>269.1242994060187</v>
+        <v>348.2475723181171</v>
       </c>
       <c r="W31">
-        <v>194.5863878643664</v>
+        <v>88.7685992653366</v>
       </c>
       <c r="X31">
         <v>530.7192862975912</v>
       </c>
       <c r="Y31">
-        <v>194.5863878643664</v>
+        <v>88.76859926533655</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
